--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitechn-my.sharepoint.com/personal/mjperezg2010_unitec_edu/Documents/UNITEC/Cuarto Año/Cuarto Periodo/Sistemas Inteligentes/Mini Proyecto#2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Archivos\Documentos\PyCharm\MiniProyecto-2_sistemasinteligentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{CD97A256-4640-4179-957F-C5823509DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B9C25D8-9C66-4B94-83D0-2671EDCC33F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F31A52-E3AF-45FD-A347-B94006C82A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F60D8537-E715-4221-B0A3-E3306DCCA47D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="46">
   <si>
     <t>Dengue_Grave</t>
   </si>
@@ -167,6 +167,12 @@
   <si>
     <t>Dataset</t>
   </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
 </sst>
 </file>
 
@@ -269,6 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,10 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,13 +632,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1725,16 +1731,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1D084-7AD1-4846-9F5F-136E446E79DB}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O142" sqref="O142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -1745,25 +1751,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1773,12 +1779,12 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1790,7 +1796,7 @@
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1820,7 +1826,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1832,7 +1838,7 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1862,7 +1868,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1874,7 +1880,7 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1904,7 +1910,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1916,7 +1922,7 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1946,7 +1952,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1958,7 +1964,7 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1988,7 +1994,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2000,7 +2006,7 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2030,7 +2036,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2042,7 +2048,7 @@
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2072,7 +2078,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2084,7 +2090,7 @@
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2114,7 +2120,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2126,7 +2132,7 @@
       <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2156,7 +2162,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2168,7 +2174,7 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2198,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2210,7 +2216,7 @@
       <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2240,7 +2246,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2252,7 +2258,7 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2282,7 +2288,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2294,7 +2300,7 @@
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2324,7 +2330,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2336,7 +2342,7 @@
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2366,7 +2372,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2378,7 +2384,7 @@
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2408,7 +2414,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2420,7 +2426,7 @@
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2450,7 +2456,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2462,7 +2468,7 @@
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2492,7 +2498,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2504,7 +2510,7 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2534,7 +2540,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2546,7 +2552,7 @@
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2576,7 +2582,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2588,7 +2594,7 @@
       <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2618,7 +2624,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2630,7 +2636,7 @@
       <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2660,7 +2666,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2672,7 +2678,7 @@
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2702,7 +2708,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2714,7 +2720,7 @@
       <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2744,7 +2750,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2756,7 +2762,7 @@
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2786,7 +2792,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2798,7 +2804,7 @@
       <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2823,12 +2829,12 @@
         <v>0.99045460866815405</v>
       </c>
       <c r="M26" s="1">
-        <f>AVERAGE(H26:L26)</f>
+        <f t="shared" ref="M26:M49" si="1">AVERAGE(H26:L26)</f>
         <v>0.99276828794373251</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2840,7 +2846,7 @@
       <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2865,12 +2871,12 @@
         <v>0.99463802363050402</v>
       </c>
       <c r="M27" s="1">
-        <f>AVERAGE(H27:L27)</f>
+        <f t="shared" si="1"/>
         <v>0.99337006115556148</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2882,7 +2888,7 @@
       <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2907,12 +2913,12 @@
         <v>0.86206710261032105</v>
       </c>
       <c r="M28" s="1">
-        <f>AVERAGE(H28:L28)</f>
+        <f t="shared" si="1"/>
         <v>0.87483298952944133</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2924,7 +2930,7 @@
       <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2949,12 +2955,12 @@
         <v>0.87346562077541101</v>
       </c>
       <c r="M29" s="1">
-        <f>AVERAGE(H29:L29)</f>
+        <f t="shared" si="1"/>
         <v>0.87090315851364797</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2966,7 +2972,7 @@
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2991,12 +2997,12 @@
         <v>0.93056007550900899</v>
       </c>
       <c r="M30" s="1">
-        <f>AVERAGE(H30:L30)</f>
+        <f t="shared" si="1"/>
         <v>0.92953203981294441</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3008,7 +3014,7 @@
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3033,12 +3039,12 @@
         <v>0.90770100999230996</v>
       </c>
       <c r="M31" s="1">
-        <f>AVERAGE(H31:L31)</f>
+        <f t="shared" si="1"/>
         <v>0.92715902468749489</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3050,7 +3056,7 @@
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3075,12 +3081,12 @@
         <v>0.99373316700519299</v>
       </c>
       <c r="M32" s="1">
-        <f>AVERAGE(H32:L32)</f>
+        <f t="shared" si="1"/>
         <v>0.99311190053269871</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3092,7 +3098,7 @@
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -3117,12 +3123,12 @@
         <v>0.99246573055281895</v>
       </c>
       <c r="M33" s="1">
-        <f>AVERAGE(H33:L33)</f>
+        <f t="shared" si="1"/>
         <v>0.99301998743071596</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3134,7 +3140,7 @@
       <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3159,12 +3165,12 @@
         <v>0.87454783770025601</v>
       </c>
       <c r="M34" s="1">
-        <f>AVERAGE(H34:L34)</f>
+        <f t="shared" si="1"/>
         <v>0.87244155148827784</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3176,7 +3182,7 @@
       <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -3201,12 +3207,12 @@
         <v>0.88000970853656602</v>
       </c>
       <c r="M35" s="1">
-        <f>AVERAGE(H35:L35)</f>
+        <f t="shared" si="1"/>
         <v>0.87568928052207473</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3218,7 +3224,7 @@
       <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3243,12 +3249,12 @@
         <v>0.93848559601435499</v>
       </c>
       <c r="M36" s="1">
-        <f>AVERAGE(H36:L36)</f>
+        <f t="shared" si="1"/>
         <v>0.93471366758816699</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3260,7 +3266,7 @@
       <c r="D37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3285,12 +3291,12 @@
         <v>0.92855045379311796</v>
       </c>
       <c r="M37" s="1">
-        <f>AVERAGE(H37:L37)</f>
+        <f t="shared" si="1"/>
         <v>0.92902038787401264</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3302,7 +3308,7 @@
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3327,12 +3333,12 @@
         <v>0.99406933832319699</v>
       </c>
       <c r="M38" s="1">
-        <f>AVERAGE(H38:L38)</f>
+        <f t="shared" si="1"/>
         <v>0.99237099650964233</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3344,7 +3350,7 @@
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3369,12 +3375,12 @@
         <v>0.99305767895707397</v>
       </c>
       <c r="M39" s="1">
-        <f>AVERAGE(H39:L39)</f>
+        <f t="shared" si="1"/>
         <v>0.99346269379855534</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3386,7 +3392,7 @@
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3411,12 +3417,12 @@
         <v>0.88860214074668697</v>
       </c>
       <c r="M40" s="1">
-        <f>AVERAGE(H40:L40)</f>
+        <f t="shared" si="1"/>
         <v>0.87820550784400453</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3428,7 +3434,7 @@
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -3453,12 +3459,12 @@
         <v>0.89046262249444996</v>
       </c>
       <c r="M41" s="1">
-        <f>AVERAGE(H41:L41)</f>
+        <f t="shared" si="1"/>
         <v>0.88217008704435518</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3470,7 +3476,7 @@
       <c r="D42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3495,12 +3501,12 @@
         <v>0.94144993446957204</v>
       </c>
       <c r="M42" s="1">
-        <f>AVERAGE(H42:L42)</f>
+        <f t="shared" si="1"/>
         <v>0.92982412194644337</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3512,7 +3518,7 @@
       <c r="D43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -3537,12 +3543,12 @@
         <v>0.93953570680418597</v>
       </c>
       <c r="M43" s="1">
-        <f>AVERAGE(H43:L43)</f>
+        <f t="shared" si="1"/>
         <v>0.93102857569249875</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3554,7 +3560,7 @@
       <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3579,12 +3585,12 @@
         <v>0.99371405311625105</v>
       </c>
       <c r="M44" s="1">
-        <f>AVERAGE(H44:L44)</f>
+        <f t="shared" si="1"/>
         <v>0.99319129016505259</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3596,7 +3602,7 @@
       <c r="D45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3621,12 +3627,12 @@
         <v>0.99248119252108002</v>
       </c>
       <c r="M45" s="1">
-        <f>AVERAGE(H45:L45)</f>
+        <f t="shared" si="1"/>
         <v>0.99279467327093973</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3638,7 +3644,7 @@
       <c r="D46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3663,12 +3669,12 @@
         <v>0.87822550888419204</v>
       </c>
       <c r="M46" s="1">
-        <f>AVERAGE(H46:L46)</f>
+        <f t="shared" si="1"/>
         <v>0.87497075328431373</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3680,7 +3686,7 @@
       <c r="D47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3705,12 +3711,12 @@
         <v>0.86276160455977302</v>
       </c>
       <c r="M47" s="1">
-        <f>AVERAGE(H47:L47)</f>
+        <f t="shared" si="1"/>
         <v>0.87405618235441929</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3722,7 +3728,7 @@
       <c r="D48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3747,12 +3753,12 @@
         <v>0.93054560156375399</v>
       </c>
       <c r="M48" s="1">
-        <f>AVERAGE(H48:L48)</f>
+        <f t="shared" si="1"/>
         <v>0.93022213635501738</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3764,7 +3770,7 @@
       <c r="D49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3789,34 +3795,4119 @@
         <v>0.93434840864073498</v>
       </c>
       <c r="M49" s="1">
-        <f>AVERAGE(H49:L49)</f>
+        <f t="shared" si="1"/>
         <v>0.93039452452129967</v>
       </c>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <f>AVERAGE(H53:L53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <f>AVERAGE(H54:L54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.87350826994207498</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.88000215726458797</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.87452335243755897</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.87757523460252396</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.88000941865188897</v>
+      </c>
+      <c r="M55" s="1">
+        <f>AVERAGE(H55:L55)</f>
+        <v>0.87712368657972706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.87237152553569697</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.87995083626461501</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.87004580272462395</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.87980320292568404</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.87611408567292504</v>
+      </c>
+      <c r="M56" s="1">
+        <f>AVERAGE(H56:L56)</f>
+        <v>0.87565709062470898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.89578583289416303</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.89839367889224797</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.89686858239270895</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.89581503177507604</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.89596302821353402</v>
+      </c>
+      <c r="M57" s="1">
+        <f>AVERAGE(H57:L57)</f>
+        <v>0.89656523083354611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.89573300770500797</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.89820629096887905</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.89542051489629104</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.89679676981879397</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.90004491279521504</v>
+      </c>
+      <c r="M58" s="1">
+        <f>AVERAGE(H58:L58)</f>
+        <v>0.89724029923683735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <f>AVERAGE(H59:L59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <f>AVERAGE(H60:L60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.87543762656901802</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.87222729244548403</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.86644000616178596</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.86906410294180203</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.871959061696431</v>
+      </c>
+      <c r="M61" s="1">
+        <f>AVERAGE(H61:L61)</f>
+        <v>0.87102561796290412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.87398724250669901</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.87588368091358304</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.87627694823706404</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.86303311621717205</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.87668544571164797</v>
+      </c>
+      <c r="M62" s="1">
+        <f>AVERAGE(H62:L62)</f>
+        <v>0.87317328671723315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="3">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.89512370605900504</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.89528444369860705</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.89201042499854499</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.89553275982157798</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.89349224147460504</v>
+      </c>
+      <c r="M63" s="1">
+        <f>AVERAGE(H63:L63)</f>
+        <v>0.89428871521046793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.89463545301243697</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.89393901870441905</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.89438220273269298</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.89481207633072202</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.89438936089708299</v>
+      </c>
+      <c r="M64" s="1">
+        <f>AVERAGE(H64:L64)</f>
+        <v>0.8944316223354708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <f>AVERAGE(H65:L65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <f>AVERAGE(H66:L66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.86915083464554999</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.87676861106410997</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.871787704291757</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.87045390528545796</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.884934784167698</v>
+      </c>
+      <c r="M67" s="1">
+        <f>AVERAGE(H67:L67)</f>
+        <v>0.87461916789091454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.87854836705760597</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.88035164732337401</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.87545420798985496</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.87798348334251697</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.88130640818320605</v>
+      </c>
+      <c r="M68" s="1">
+        <f>AVERAGE(H68:L68)</f>
+        <v>0.87872882277931164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1">
+        <v>20</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.89515085473224798</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.89777022040139298</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.897808067996406</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.89681679822524896</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.89877565297706197</v>
+      </c>
+      <c r="M69" s="1">
+        <f>AVERAGE(H69:L69)</f>
+        <v>0.89726431886647151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="1">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3">
+        <v>6</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.89577094825321701</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.89953792144630995</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.89699782688096497</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.89699977741250603</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.898789765212195</v>
+      </c>
+      <c r="M70" s="1">
+        <f>AVERAGE(H70:L70)</f>
+        <v>0.89761924784103864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <f>AVERAGE(H71:L71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>20</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="1">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <f>AVERAGE(H72:L72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.87144716861105298</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.87077034140112097</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.869500921394329</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.86549670627215702</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.864501135343545</v>
+      </c>
+      <c r="M73" s="1">
+        <f>AVERAGE(H73:L73)</f>
+        <v>0.86834325460444117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="1">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.86978021978021902</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.87414879067680995</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.87048090934691702</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.87369685944487896</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.86984586318053803</v>
+      </c>
+      <c r="M74" s="1">
+        <f>AVERAGE(H74:L74)</f>
+        <v>0.8715905284858726</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>23</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="1">
+        <v>20</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="3">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.89605477268024203</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.89740350289150195</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.894974152417358</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.89529383969607301</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.89556765923700299</v>
+      </c>
+      <c r="M75" s="1">
+        <f>AVERAGE(H75:L75)</f>
+        <v>0.89585878538443564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="1">
+        <v>20</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.89543457685545103</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.89768652722897802</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.89703591130669402</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.89526798379883898</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.89391270387114596</v>
+      </c>
+      <c r="M76" s="1">
+        <f>AVERAGE(H76:L76)</f>
+        <v>0.89586754061222162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="1">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <f>AVERAGE(H77:L77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="1">
+        <v>30</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
+        <f>AVERAGE(H78:L78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>27</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1">
+        <v>30</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.87733924897215498</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.87764807961569302</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.87593637327677598</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.87824173763651303</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0.883129499818607</v>
+      </c>
+      <c r="M79" s="1">
+        <f>AVERAGE(H79:L79)</f>
+        <v>0.87845898786394883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.87551405019608297</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.87923311117314495</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.87491436572088499</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.87773258190832604</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.88277372541677501</v>
+      </c>
+      <c r="M80" s="1">
+        <f>AVERAGE(H80:L80)</f>
+        <v>0.87803356688304279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>29</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="1">
+        <v>30</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.89789356544318699</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.89883057108379205</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.89877420894708104</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.897013877246292</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0.89856354712004904</v>
+      </c>
+      <c r="M81" s="1">
+        <f>AVERAGE(H81:L81)</f>
+        <v>0.89821515396808027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>30</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="1">
+        <v>30</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3">
+        <v>6</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.89684068538725403</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.89993376656303903</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.89640846409595398</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.89667611023182003</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.89958008487393304</v>
+      </c>
+      <c r="M82" s="1">
+        <f>AVERAGE(H82:L82)</f>
+        <v>0.89788782223040009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="1">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <f>AVERAGE(H83:L83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>32</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="1">
+        <v>30</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <f>AVERAGE(H84:L84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>33</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="1">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.86497601605547902</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.86944507299144902</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.86518128648028203</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.87256413282422296</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0.87822516028400599</v>
+      </c>
+      <c r="M85" s="1">
+        <f>AVERAGE(H85:L85)</f>
+        <v>0.87007833372708776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>34</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="1">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.87190953528820403</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.86550952495029099</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.87165982601656</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.86971912835056497</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.87077308019823996</v>
+      </c>
+      <c r="M86" s="1">
+        <f>AVERAGE(H86:L86)</f>
+        <v>0.86991421896077203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>35</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="1">
+        <v>30</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.89641674388449499</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.89742872602965695</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.89618378369657503</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.89477610666881602</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0.89751605890952801</v>
+      </c>
+      <c r="M87" s="1">
+        <f>AVERAGE(H87:L87)</f>
+        <v>0.89646428383781429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>36</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="1">
+        <v>30</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.89422837061550198</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.89743245510991698</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.89512991182440205</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.89621138797808197</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0.89839468290528701</v>
+      </c>
+      <c r="M88" s="1">
+        <f>AVERAGE(H88:L88)</f>
+        <v>0.89627936168663802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>37</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="1">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <f>AVERAGE(H89:L89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>38</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="1">
+        <v>40</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <f>AVERAGE(H90:L90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>39</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.87453953794411898</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.881257297269184</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.87551277957324503</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.87885440634430101</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.88107634249613298</v>
+      </c>
+      <c r="M91" s="1">
+        <f>AVERAGE(H91:L91)</f>
+        <v>0.87824807272539651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>40</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="1">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.87627264374496705</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.87954835737900205</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.87766404639022599</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.87463635724730704</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.88158169193341596</v>
+      </c>
+      <c r="M92" s="1">
+        <f>AVERAGE(H92:L92)</f>
+        <v>0.8779406193389836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>41</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="1">
+        <v>40</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.89728697803231905</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.898911772102714</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.89875670427961896</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.89820865942407402</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.89711003085621699</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" ref="M93:M100" si="2">AVERAGE(H93:L93)</f>
+        <v>0.89805482893898847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>42</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="1">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.89597246342596604</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.89967932132456496</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.89615545608310099</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.89922262417336496</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.90014420617500501</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89823481423640028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>43</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="1">
+        <v>40</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>44</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="1">
+        <v>40</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>45</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="1">
+        <v>40</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.87216789405497896</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.87724778041295504</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.86862503673582603</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.87277020937609995</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0.87754140448626194</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87367046501322443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>46</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="1">
+        <v>40</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="3">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.87163885861149204</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.87191444708766697</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.87830010227627098</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.87223130687856598</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.87422714318755401</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87366237160831006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>47</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="1">
+        <v>40</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" s="3">
+        <v>6</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.894670708240488</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.89683717279048203</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.89651952903850696</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.89553549852732295</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.89763312784925597</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89623920728921114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>48</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="1">
+        <v>40</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.89403015944695496</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.89898424522442</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.89456791897958299</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.895829421078702</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.89607529143730802</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89589740723339362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="1">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" ref="M103:M150" si="3">AVERAGE(H103:L103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="1">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="1">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="3">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.93003879496247099</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.92296221536150502</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.94520532142846803</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.91744908162855898</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0.94050120939739601</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93123132455567981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="1">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.95373386015787198</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.90488210272515501</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.92369222634889203</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.92706180290455698</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0.940089020129108</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92989180245311664</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="1">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="1">
+        <v>4</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.96562151665613805</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.96895839654007898</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.96031169678919603</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.96739395978015397</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0.96656316491051897</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96576974693521722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3">
+        <v>6</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="1">
+        <v>4</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.96968254026845202</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.96944791146725895</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.96446236513211203</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.97220551172858005</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.96085529158642902</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9673307240365665</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="1">
+        <v>4</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="1">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="1">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="3">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="1">
+        <v>4</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.93036364573543295</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.94186272520551895</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.94919544572433701</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0.94390710597363103</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0.922586233495863</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93758303122695674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.92710037521195598</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.91636219311865197</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.92475163386006298</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.91779959970814795</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0.92043316506421202</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92128939339260607</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="1">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="3">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.96850314338628996</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.96295823093877397</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.96422445005537305</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0.96189063185593404</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.96892693241907701</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96530067773108963</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="1">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="3">
+        <v>6</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="1">
+        <v>4</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.97137617797769704</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.96363482007836598</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.96255321752915801</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0.96806717051132196</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0.966581868157115</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96644265085073155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="1">
+        <v>20</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="1">
+        <v>4</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>14</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="1">
+        <v>20</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="1">
+        <v>4</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>15</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="1">
+        <v>20</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="3">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="1">
+        <v>4</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.92167687390602404</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.92083663068892796</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.93152751104114695</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0.93601024260946497</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0.92345093217276597</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92670043808366598</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.92708225200577699</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.93573647066821297</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0.92782908008708398</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0.92746301857557301</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0.94524401060376895</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93267096638808322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>17</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1">
+        <v>20</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="3">
+        <v>6</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="1">
+        <v>4</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.96512276785714202</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.96771572197094702</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0.96638162935863603</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.96826347894862197</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0.96900996599285005</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96729871282563951</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>18</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="1">
+        <v>20</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3">
+        <v>6</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="1">
+        <v>4</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.97140991855498904</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.96686320598876496</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0.966817856617737</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.96827375907435298</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0.96867886348635102</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96840872074443907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>19</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="1">
+        <v>20</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="1">
+        <v>4</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>20</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="1">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="1">
+        <v>4</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>21</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="1">
+        <v>20</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="3">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="1">
+        <v>4</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.93372006740482405</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.94255101433857102</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0.91529601229172797</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0.937753686835884</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.93679627538454902</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9332234112511113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>22</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="1">
+        <v>20</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="3">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="1">
+        <v>4</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.93653015443880006</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0.93658188008986798</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0.94130007699088403</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0.93981170090628496</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0.93133759966400798</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93711228241796918</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>23</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" s="1">
+        <v>20</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="3">
+        <v>6</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="1">
+        <v>4</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.96742328709541803</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.96715398667423402</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0.96519973276131799</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0.96971807330458204</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0.96798916669438095</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96749684930598667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="1">
+        <v>20</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="3">
+        <v>6</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="1">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.96766726195268005</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.96840606724771805</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0.968565205944939</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0.96927722591054599</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0.96642632637649994</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96806841748647676</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="1">
+        <v>30</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="1">
+        <v>4</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>26</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="1">
+        <v>30</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" s="1">
+        <v>4</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>27</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="1">
+        <v>30</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="3">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.91921964710368398</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.93340249844940104</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0.95515927730285599</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0.92718726276271601</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0.94178405553003597</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93535054822973862</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>28</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1">
+        <v>30</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="3">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.93676620786148102</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.93240627515561902</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0.93999223864372905</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.93235161100767505</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0.939923271916841</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93628792091706914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>29</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="1">
+        <v>30</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3">
+        <v>6</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.97167221288017203</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.96623129509799399</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0.96651017176160803</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0.97169262528479605</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0.96958420360858499</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96913810172663106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>30</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="1">
+        <v>30</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="3">
+        <v>6</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.97471572839392995</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.969692933823881</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0.96827033724893796</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0.973395540818771</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0.97093765341187999</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" si="3"/>
+        <v>0.97140243873948007</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>31</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="1">
+        <v>30</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>32</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="1">
+        <v>30</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" s="1">
+        <v>4</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>33</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="1">
+        <v>30</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="3">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.933456905730082</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.93263687345275303</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0.94971030162969905</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.92849957506678304</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0.92629633523267596</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93411999822239855</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>34</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="1">
+        <v>30</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="3">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" s="1">
+        <v>4</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.92517216436698402</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.93386666666666596</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0.92315245342057195</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.92352736704189897</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0.92970009003912002</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92708374830704821</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>35</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="1">
+        <v>30</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="3">
+        <v>6</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="1">
+        <v>4</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.96850674536306103</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.96826958579484401</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0.96572108507950105</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0.96911638407587897</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0.96962515675939398</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96824779141453576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>36</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="1">
+        <v>30</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="3">
+        <v>6</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.96549455236225401</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.96927646871609197</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0.96502665836441204</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.96355782653718003</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0.96886378455204103</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96644385810639588</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>37</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="1">
+        <v>40</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="1">
+        <v>4</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>1</v>
+      </c>
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>38</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="1">
+        <v>40</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>39</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="1">
+        <v>40</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="3">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.93704144546972101</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.93521725812243595</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0.92343599512631402</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0.92898526759072297</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0.94277726906673998</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93349144707518672</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>40</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="1">
+        <v>40</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="3">
+        <v>3</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.92586220940957598</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.93424075741816304</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0.94071186522324701</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.93716868999591196</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0.93614609453634001</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93482592331664771</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>41</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="1">
+        <v>40</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="3">
+        <v>6</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="1">
+        <v>4</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.96879051782497405</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0.96845586531968797</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0.96791473981201603</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0.96967870206547502</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0.96584538056563796</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96813704111755816</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>42</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="1">
+        <v>40</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="3">
+        <v>6</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" s="1">
+        <v>4</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.96741931484094801</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0.96905278238106696</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0.97128746235720997</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0.96890131007151303</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0.97148342006145305</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96962885794243836</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>43</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="1">
+        <v>40</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="1">
+        <v>4</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1">
+        <v>1</v>
+      </c>
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>44</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="1">
+        <v>40</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" s="1">
+        <v>4</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
+        <v>1</v>
+      </c>
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>45</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="1">
+        <v>40</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="3">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.94354480602169599</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0.92447632833472704</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0.92750525320389399</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0.93195730719714198</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0.942784614723161</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93405366189612393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>46</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="1">
+        <v>40</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" s="3">
+        <v>3</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" s="1">
+        <v>4</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.94879724110584396</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0.93243401332645404</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0.93187282548940298</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0.92623136982933796</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0.93251531942259702</v>
+      </c>
+      <c r="M148" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93437015383472721</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>47</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="1">
+        <v>40</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E149" s="3">
+        <v>6</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="1">
+        <v>4</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.96815824487459501</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0.96467903691485402</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0.97011125481745897</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0.96860503388645303</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0.96958420360858499</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96822755482038914</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>48</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="1">
+        <v>40</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" s="3">
+        <v>6</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" s="1">
+        <v>4</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.96789617281594997</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0.96594472944640697</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0.96597097020626399</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0.96915504290889798</v>
+      </c>
+      <c r="L150" s="1">
+        <v>0.96740122944823004</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96727362896514979</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H102:L102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D4B8E2254D7954FB8D37F39FA8FA5AE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b79a456cc362cb9693ea3845d7334f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e68ca421-a8ab-4e28-bb3d-3be40295d83c" xmlns:ns4="e72d18f1-82d9-4692-a53f-567b32753366" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45c8fed6efe177332959f950ecff514e" ns3:_="" ns4:_="">
     <xsd:import namespace="e68ca421-a8ab-4e28-bb3d-3be40295d83c"/>
@@ -4033,24 +8124,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F85D4D3-D7FB-4A2B-A7BD-0F891DC81AF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33577405-9D43-417E-80C1-3AC650C4D969}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4F2908-64A0-4D9B-BE62-4CA21FDE6804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4067,4 +8156,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33577405-9D43-417E-80C1-3AC650C4D969}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F85D4D3-D7FB-4A2B-A7BD-0F891DC81AF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitechn-my.sharepoint.com/personal/mjperezg2010_unitec_edu/Documents/UNITEC/Cuarto Año/Cuarto Periodo/Sistemas Inteligentes/Mini Proyecto#2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmanr\Documents\Unitec\Sist Intelingentes\dengue\MiniProyecto-2_sistemasinteligentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{CD97A256-4640-4179-957F-C5823509DAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B9C25D8-9C66-4B94-83D0-2671EDCC33F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F7590-672C-4264-A0B7-8B5FA9B12F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F60D8537-E715-4221-B0A3-E3306DCCA47D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F60D8537-E715-4221-B0A3-E3306DCCA47D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -269,6 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,10 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,30 +611,30 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -685,12 +685,12 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -863,7 +863,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -897,12 +897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -936,7 +936,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -953,12 +953,12 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -992,7 +992,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1026,12 +1026,12 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -1082,12 +1082,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -1138,12 +1138,12 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -1194,12 +1194,12 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>5067</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -1267,12 +1267,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -1323,12 +1323,12 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -1379,12 +1379,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -1435,12 +1435,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
@@ -1491,12 +1491,12 @@
         <v>995</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1547,12 +1547,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -1603,12 +1603,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
@@ -1659,12 +1659,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>28</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
@@ -1728,42 +1728,42 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E44" sqref="E44:M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1773,12 +1773,12 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1790,7 +1790,7 @@
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1819,8 +1819,8 @@
         <v>0.99252106289392084</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1832,7 +1832,7 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1861,8 +1861,8 @@
         <v>0.99270618208630113</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1874,7 +1874,7 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1903,8 +1903,8 @@
         <v>0.87550677553577771</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1916,7 +1916,7 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1945,8 +1945,8 @@
         <v>0.87450858420661393</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1958,7 +1958,7 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1987,8 +1987,8 @@
         <v>0.93034562240998342</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2000,7 +2000,7 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2029,8 +2029,8 @@
         <v>0.93073765532181074</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2042,7 +2042,7 @@
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2071,8 +2071,8 @@
         <v>0.99280324391946539</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2084,7 +2084,7 @@
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2113,8 +2113,8 @@
         <v>0.99295070270146224</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2126,7 +2126,7 @@
       <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2155,8 +2155,8 @@
         <v>0.88133404550108774</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2168,7 +2168,7 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2197,8 +2197,8 @@
         <v>0.8822566381815985</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2210,7 +2210,7 @@
       <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2239,8 +2239,8 @@
         <v>0.92533893311655269</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2252,7 +2252,7 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2281,8 +2281,8 @@
         <v>0.92934442763533265</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2294,7 +2294,7 @@
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2323,8 +2323,8 @@
         <v>0.99287097168063654</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2336,7 +2336,7 @@
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2365,8 +2365,8 @@
         <v>0.99280168487180143</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2378,7 +2378,7 @@
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2407,8 +2407,8 @@
         <v>0.88260583556671079</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2420,7 +2420,7 @@
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2449,8 +2449,8 @@
         <v>0.87924499355382291</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2462,7 +2462,7 @@
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2491,8 +2491,8 @@
         <v>0.92918955431234773</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2504,7 +2504,7 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2533,8 +2533,8 @@
         <v>0.93303250269691862</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2546,7 +2546,7 @@
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2575,8 +2575,8 @@
         <v>0.99262831435960897</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2588,7 +2588,7 @@
       <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2617,8 +2617,8 @@
         <v>0.99302649888601324</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2630,7 +2630,7 @@
       <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2659,8 +2659,8 @@
         <v>0.87788119243530893</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2672,7 +2672,7 @@
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2701,8 +2701,8 @@
         <v>0.87687648795110174</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2714,7 +2714,7 @@
       <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2743,8 +2743,8 @@
         <v>0.93155741065959852</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2756,7 +2756,7 @@
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2785,8 +2785,8 @@
         <v>0.92896729467392691</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2823,12 +2823,12 @@
         <v>0.99045460866815405</v>
       </c>
       <c r="M26" s="1">
-        <f>AVERAGE(H26:L26)</f>
+        <f t="shared" ref="M26:M49" si="1">AVERAGE(H26:L26)</f>
         <v>0.99276828794373251</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2865,12 +2865,12 @@
         <v>0.99463802363050402</v>
       </c>
       <c r="M27" s="1">
-        <f>AVERAGE(H27:L27)</f>
+        <f t="shared" si="1"/>
         <v>0.99337006115556148</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2907,12 +2907,12 @@
         <v>0.86206710261032105</v>
       </c>
       <c r="M28" s="1">
-        <f>AVERAGE(H28:L28)</f>
+        <f t="shared" si="1"/>
         <v>0.87483298952944133</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2949,12 +2949,12 @@
         <v>0.87346562077541101</v>
       </c>
       <c r="M29" s="1">
-        <f>AVERAGE(H29:L29)</f>
+        <f t="shared" si="1"/>
         <v>0.87090315851364797</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2991,12 +2991,12 @@
         <v>0.93056007550900899</v>
       </c>
       <c r="M30" s="1">
-        <f>AVERAGE(H30:L30)</f>
+        <f t="shared" si="1"/>
         <v>0.92953203981294441</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3033,12 +3033,12 @@
         <v>0.90770100999230996</v>
       </c>
       <c r="M31" s="1">
-        <f>AVERAGE(H31:L31)</f>
+        <f t="shared" si="1"/>
         <v>0.92715902468749489</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3075,12 +3075,12 @@
         <v>0.99373316700519299</v>
       </c>
       <c r="M32" s="1">
-        <f>AVERAGE(H32:L32)</f>
+        <f t="shared" si="1"/>
         <v>0.99311190053269871</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3117,12 +3117,12 @@
         <v>0.99246573055281895</v>
       </c>
       <c r="M33" s="1">
-        <f>AVERAGE(H33:L33)</f>
+        <f t="shared" si="1"/>
         <v>0.99301998743071596</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3159,12 +3159,12 @@
         <v>0.87454783770025601</v>
       </c>
       <c r="M34" s="1">
-        <f>AVERAGE(H34:L34)</f>
+        <f t="shared" si="1"/>
         <v>0.87244155148827784</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3201,12 +3201,12 @@
         <v>0.88000970853656602</v>
       </c>
       <c r="M35" s="1">
-        <f>AVERAGE(H35:L35)</f>
+        <f t="shared" si="1"/>
         <v>0.87568928052207473</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3243,12 +3243,12 @@
         <v>0.93848559601435499</v>
       </c>
       <c r="M36" s="1">
-        <f>AVERAGE(H36:L36)</f>
+        <f t="shared" si="1"/>
         <v>0.93471366758816699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3285,12 +3285,12 @@
         <v>0.92855045379311796</v>
       </c>
       <c r="M37" s="1">
-        <f>AVERAGE(H37:L37)</f>
+        <f t="shared" si="1"/>
         <v>0.92902038787401264</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3327,12 +3327,12 @@
         <v>0.99406933832319699</v>
       </c>
       <c r="M38" s="1">
-        <f>AVERAGE(H38:L38)</f>
+        <f t="shared" si="1"/>
         <v>0.99237099650964233</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3369,12 +3369,12 @@
         <v>0.99305767895707397</v>
       </c>
       <c r="M39" s="1">
-        <f>AVERAGE(H39:L39)</f>
+        <f t="shared" si="1"/>
         <v>0.99346269379855534</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3411,12 +3411,12 @@
         <v>0.88860214074668697</v>
       </c>
       <c r="M40" s="1">
-        <f>AVERAGE(H40:L40)</f>
+        <f t="shared" si="1"/>
         <v>0.87820550784400453</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3453,12 +3453,12 @@
         <v>0.89046262249444996</v>
       </c>
       <c r="M41" s="1">
-        <f>AVERAGE(H41:L41)</f>
+        <f t="shared" si="1"/>
         <v>0.88217008704435518</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3495,12 +3495,12 @@
         <v>0.94144993446957204</v>
       </c>
       <c r="M42" s="1">
-        <f>AVERAGE(H42:L42)</f>
+        <f t="shared" si="1"/>
         <v>0.92982412194644337</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3537,12 +3537,12 @@
         <v>0.93953570680418597</v>
       </c>
       <c r="M43" s="1">
-        <f>AVERAGE(H43:L43)</f>
+        <f t="shared" si="1"/>
         <v>0.93102857569249875</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3579,12 +3579,12 @@
         <v>0.99371405311625105</v>
       </c>
       <c r="M44" s="1">
-        <f>AVERAGE(H44:L44)</f>
+        <f t="shared" si="1"/>
         <v>0.99319129016505259</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3621,12 +3621,12 @@
         <v>0.99248119252108002</v>
       </c>
       <c r="M45" s="1">
-        <f>AVERAGE(H45:L45)</f>
+        <f t="shared" si="1"/>
         <v>0.99279467327093973</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3663,12 +3663,12 @@
         <v>0.87822550888419204</v>
       </c>
       <c r="M46" s="1">
-        <f>AVERAGE(H46:L46)</f>
+        <f t="shared" si="1"/>
         <v>0.87497075328431373</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3705,12 +3705,12 @@
         <v>0.86276160455977302</v>
       </c>
       <c r="M47" s="1">
-        <f>AVERAGE(H47:L47)</f>
+        <f t="shared" si="1"/>
         <v>0.87405618235441929</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3747,12 +3747,12 @@
         <v>0.93054560156375399</v>
       </c>
       <c r="M48" s="1">
-        <f>AVERAGE(H48:L48)</f>
+        <f t="shared" si="1"/>
         <v>0.93022213635501738</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3789,7 +3789,7 @@
         <v>0.93434840864073498</v>
       </c>
       <c r="M49" s="1">
-        <f>AVERAGE(H49:L49)</f>
+        <f t="shared" si="1"/>
         <v>0.93039452452129967</v>
       </c>
     </row>
@@ -3797,26 +3797,23 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <conditionalFormatting sqref="M2:M49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D4B8E2254D7954FB8D37F39FA8FA5AE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b79a456cc362cb9693ea3845d7334f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e68ca421-a8ab-4e28-bb3d-3be40295d83c" xmlns:ns4="e72d18f1-82d9-4692-a53f-567b32753366" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45c8fed6efe177332959f950ecff514e" ns3:_="" ns4:_="">
     <xsd:import namespace="e68ca421-a8ab-4e28-bb3d-3be40295d83c"/>
@@ -4033,24 +4030,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F85D4D3-D7FB-4A2B-A7BD-0F891DC81AF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33577405-9D43-417E-80C1-3AC650C4D969}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4F2908-64A0-4D9B-BE62-4CA21FDE6804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4067,4 +4062,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33577405-9D43-417E-80C1-3AC650C4D969}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F85D4D3-D7FB-4A2B-A7BD-0F891DC81AF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Archivos\Documentos\PyCharm\MiniProyecto-2_sistemasinteligentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F31A52-E3AF-45FD-A347-B94006C82A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C29AD9-5D56-40B5-A784-C166B87C68BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F60D8537-E715-4221-B0A3-E3306DCCA47D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F60D8537-E715-4221-B0A3-E3306DCCA47D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla Random Forest" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="53">
   <si>
     <t>Dengue_Grave</t>
   </si>
@@ -172,6 +173,27 @@
   </si>
   <si>
     <t>Completo</t>
+  </si>
+  <si>
+    <t>clinica_train_synth_dengue.csv</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>rbf</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>laboratorio_train_synth_dengue.csv</t>
+  </si>
+  <si>
+    <t>completo_train_synth_dengue.csv</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC1D084-7AD1-4846-9F5F-136E446E79DB}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O142" sqref="O142"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="1">
-        <f>AVERAGE(H53:L53)</f>
+        <f t="shared" ref="M53:M92" si="2">AVERAGE(H53:L53)</f>
         <v>1</v>
       </c>
     </row>
@@ -3912,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="1">
-        <f>AVERAGE(H54:L54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3954,7 +3976,7 @@
         <v>0.88000941865188897</v>
       </c>
       <c r="M55" s="1">
-        <f>AVERAGE(H55:L55)</f>
+        <f t="shared" si="2"/>
         <v>0.87712368657972706</v>
       </c>
     </row>
@@ -3996,7 +4018,7 @@
         <v>0.87611408567292504</v>
       </c>
       <c r="M56" s="1">
-        <f>AVERAGE(H56:L56)</f>
+        <f t="shared" si="2"/>
         <v>0.87565709062470898</v>
       </c>
     </row>
@@ -4038,7 +4060,7 @@
         <v>0.89596302821353402</v>
       </c>
       <c r="M57" s="1">
-        <f>AVERAGE(H57:L57)</f>
+        <f t="shared" si="2"/>
         <v>0.89656523083354611</v>
       </c>
     </row>
@@ -4080,7 +4102,7 @@
         <v>0.90004491279521504</v>
       </c>
       <c r="M58" s="1">
-        <f>AVERAGE(H58:L58)</f>
+        <f t="shared" si="2"/>
         <v>0.89724029923683735</v>
       </c>
     </row>
@@ -4122,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="1">
-        <f>AVERAGE(H59:L59)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4164,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="M60" s="1">
-        <f>AVERAGE(H60:L60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4206,7 +4228,7 @@
         <v>0.871959061696431</v>
       </c>
       <c r="M61" s="1">
-        <f>AVERAGE(H61:L61)</f>
+        <f t="shared" si="2"/>
         <v>0.87102561796290412</v>
       </c>
     </row>
@@ -4248,7 +4270,7 @@
         <v>0.87668544571164797</v>
       </c>
       <c r="M62" s="1">
-        <f>AVERAGE(H62:L62)</f>
+        <f t="shared" si="2"/>
         <v>0.87317328671723315</v>
       </c>
     </row>
@@ -4290,7 +4312,7 @@
         <v>0.89349224147460504</v>
       </c>
       <c r="M63" s="1">
-        <f>AVERAGE(H63:L63)</f>
+        <f t="shared" si="2"/>
         <v>0.89428871521046793</v>
       </c>
     </row>
@@ -4332,7 +4354,7 @@
         <v>0.89438936089708299</v>
       </c>
       <c r="M64" s="1">
-        <f>AVERAGE(H64:L64)</f>
+        <f t="shared" si="2"/>
         <v>0.8944316223354708</v>
       </c>
     </row>
@@ -4374,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="M65" s="1">
-        <f>AVERAGE(H65:L65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4416,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <f>AVERAGE(H66:L66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4458,7 +4480,7 @@
         <v>0.884934784167698</v>
       </c>
       <c r="M67" s="1">
-        <f>AVERAGE(H67:L67)</f>
+        <f t="shared" si="2"/>
         <v>0.87461916789091454</v>
       </c>
     </row>
@@ -4500,7 +4522,7 @@
         <v>0.88130640818320605</v>
       </c>
       <c r="M68" s="1">
-        <f>AVERAGE(H68:L68)</f>
+        <f t="shared" si="2"/>
         <v>0.87872882277931164</v>
       </c>
     </row>
@@ -4542,7 +4564,7 @@
         <v>0.89877565297706197</v>
       </c>
       <c r="M69" s="1">
-        <f>AVERAGE(H69:L69)</f>
+        <f t="shared" si="2"/>
         <v>0.89726431886647151</v>
       </c>
     </row>
@@ -4584,7 +4606,7 @@
         <v>0.898789765212195</v>
       </c>
       <c r="M70" s="1">
-        <f>AVERAGE(H70:L70)</f>
+        <f t="shared" si="2"/>
         <v>0.89761924784103864</v>
       </c>
     </row>
@@ -4626,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="1">
-        <f>AVERAGE(H71:L71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4668,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="1">
-        <f>AVERAGE(H72:L72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4710,7 +4732,7 @@
         <v>0.864501135343545</v>
       </c>
       <c r="M73" s="1">
-        <f>AVERAGE(H73:L73)</f>
+        <f t="shared" si="2"/>
         <v>0.86834325460444117</v>
       </c>
     </row>
@@ -4752,7 +4774,7 @@
         <v>0.86984586318053803</v>
       </c>
       <c r="M74" s="1">
-        <f>AVERAGE(H74:L74)</f>
+        <f t="shared" si="2"/>
         <v>0.8715905284858726</v>
       </c>
     </row>
@@ -4794,7 +4816,7 @@
         <v>0.89556765923700299</v>
       </c>
       <c r="M75" s="1">
-        <f>AVERAGE(H75:L75)</f>
+        <f t="shared" si="2"/>
         <v>0.89585878538443564</v>
       </c>
     </row>
@@ -4836,7 +4858,7 @@
         <v>0.89391270387114596</v>
       </c>
       <c r="M76" s="1">
-        <f>AVERAGE(H76:L76)</f>
+        <f t="shared" si="2"/>
         <v>0.89586754061222162</v>
       </c>
     </row>
@@ -4878,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="1">
-        <f>AVERAGE(H77:L77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4920,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="1">
-        <f>AVERAGE(H78:L78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4962,7 +4984,7 @@
         <v>0.883129499818607</v>
       </c>
       <c r="M79" s="1">
-        <f>AVERAGE(H79:L79)</f>
+        <f t="shared" si="2"/>
         <v>0.87845898786394883</v>
       </c>
     </row>
@@ -5004,7 +5026,7 @@
         <v>0.88277372541677501</v>
       </c>
       <c r="M80" s="1">
-        <f>AVERAGE(H80:L80)</f>
+        <f t="shared" si="2"/>
         <v>0.87803356688304279</v>
       </c>
     </row>
@@ -5046,7 +5068,7 @@
         <v>0.89856354712004904</v>
       </c>
       <c r="M81" s="1">
-        <f>AVERAGE(H81:L81)</f>
+        <f t="shared" si="2"/>
         <v>0.89821515396808027</v>
       </c>
     </row>
@@ -5088,7 +5110,7 @@
         <v>0.89958008487393304</v>
       </c>
       <c r="M82" s="1">
-        <f>AVERAGE(H82:L82)</f>
+        <f t="shared" si="2"/>
         <v>0.89788782223040009</v>
       </c>
     </row>
@@ -5130,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="M83" s="1">
-        <f>AVERAGE(H83:L83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5172,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="M84" s="1">
-        <f>AVERAGE(H84:L84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5214,7 +5236,7 @@
         <v>0.87822516028400599</v>
       </c>
       <c r="M85" s="1">
-        <f>AVERAGE(H85:L85)</f>
+        <f t="shared" si="2"/>
         <v>0.87007833372708776</v>
       </c>
     </row>
@@ -5256,7 +5278,7 @@
         <v>0.87077308019823996</v>
       </c>
       <c r="M86" s="1">
-        <f>AVERAGE(H86:L86)</f>
+        <f t="shared" si="2"/>
         <v>0.86991421896077203</v>
       </c>
     </row>
@@ -5298,7 +5320,7 @@
         <v>0.89751605890952801</v>
       </c>
       <c r="M87" s="1">
-        <f>AVERAGE(H87:L87)</f>
+        <f t="shared" si="2"/>
         <v>0.89646428383781429</v>
       </c>
     </row>
@@ -5340,7 +5362,7 @@
         <v>0.89839468290528701</v>
       </c>
       <c r="M88" s="1">
-        <f>AVERAGE(H88:L88)</f>
+        <f t="shared" si="2"/>
         <v>0.89627936168663802</v>
       </c>
     </row>
@@ -5382,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="M89" s="1">
-        <f>AVERAGE(H89:L89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5424,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="1">
-        <f>AVERAGE(H90:L90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5466,7 +5488,7 @@
         <v>0.88107634249613298</v>
       </c>
       <c r="M91" s="1">
-        <f>AVERAGE(H91:L91)</f>
+        <f t="shared" si="2"/>
         <v>0.87824807272539651</v>
       </c>
     </row>
@@ -5508,7 +5530,7 @@
         <v>0.88158169193341596</v>
       </c>
       <c r="M92" s="1">
-        <f>AVERAGE(H92:L92)</f>
+        <f t="shared" si="2"/>
         <v>0.8779406193389836</v>
       </c>
     </row>
@@ -5550,7 +5572,7 @@
         <v>0.89711003085621699</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" ref="M93:M100" si="2">AVERAGE(H93:L93)</f>
+        <f t="shared" ref="M93:M100" si="3">AVERAGE(H93:L93)</f>
         <v>0.89805482893898847</v>
       </c>
     </row>
@@ -5592,7 +5614,7 @@
         <v>0.90014420617500501</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89823481423640028</v>
       </c>
     </row>
@@ -5634,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5676,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5718,7 +5740,7 @@
         <v>0.87754140448626194</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87367046501322443</v>
       </c>
     </row>
@@ -5760,7 +5782,7 @@
         <v>0.87422714318755401</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87366237160831006</v>
       </c>
     </row>
@@ -5802,7 +5824,7 @@
         <v>0.89763312784925597</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89623920728921114</v>
       </c>
     </row>
@@ -5844,7 +5866,7 @@
         <v>0.89607529143730802</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89589740723339362</v>
       </c>
     </row>
@@ -5919,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" ref="M103:M150" si="3">AVERAGE(H103:L103)</f>
+        <f t="shared" ref="M103:M150" si="4">AVERAGE(H103:L103)</f>
         <v>1</v>
       </c>
     </row>
@@ -5961,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6003,7 +6025,7 @@
         <v>0.94050120939739601</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93123132455567981</v>
       </c>
     </row>
@@ -6045,7 +6067,7 @@
         <v>0.940089020129108</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92989180245311664</v>
       </c>
     </row>
@@ -6087,7 +6109,7 @@
         <v>0.96656316491051897</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96576974693521722</v>
       </c>
     </row>
@@ -6129,7 +6151,7 @@
         <v>0.96085529158642902</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9673307240365665</v>
       </c>
     </row>
@@ -6171,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6213,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6255,7 +6277,7 @@
         <v>0.922586233495863</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93758303122695674</v>
       </c>
     </row>
@@ -6297,7 +6319,7 @@
         <v>0.92043316506421202</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92128939339260607</v>
       </c>
     </row>
@@ -6339,7 +6361,7 @@
         <v>0.96892693241907701</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96530067773108963</v>
       </c>
     </row>
@@ -6381,7 +6403,7 @@
         <v>0.966581868157115</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96644265085073155</v>
       </c>
     </row>
@@ -6423,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6465,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6507,7 +6529,7 @@
         <v>0.92345093217276597</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92670043808366598</v>
       </c>
     </row>
@@ -6549,7 +6571,7 @@
         <v>0.94524401060376895</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93267096638808322</v>
       </c>
     </row>
@@ -6591,7 +6613,7 @@
         <v>0.96900996599285005</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96729871282563951</v>
       </c>
     </row>
@@ -6633,7 +6655,7 @@
         <v>0.96867886348635102</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96840872074443907</v>
       </c>
     </row>
@@ -6675,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6717,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6759,7 +6781,7 @@
         <v>0.93679627538454902</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9332234112511113</v>
       </c>
     </row>
@@ -6801,7 +6823,7 @@
         <v>0.93133759966400798</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93711228241796918</v>
       </c>
     </row>
@@ -6843,7 +6865,7 @@
         <v>0.96798916669438095</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96749684930598667</v>
       </c>
     </row>
@@ -6885,7 +6907,7 @@
         <v>0.96642632637649994</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96806841748647676</v>
       </c>
     </row>
@@ -6927,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6969,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7011,7 +7033,7 @@
         <v>0.94178405553003597</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93535054822973862</v>
       </c>
     </row>
@@ -7053,7 +7075,7 @@
         <v>0.939923271916841</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93628792091706914</v>
       </c>
     </row>
@@ -7095,7 +7117,7 @@
         <v>0.96958420360858499</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96913810172663106</v>
       </c>
     </row>
@@ -7137,7 +7159,7 @@
         <v>0.97093765341187999</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97140243873948007</v>
       </c>
     </row>
@@ -7179,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7221,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7263,7 +7285,7 @@
         <v>0.92629633523267596</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93411999822239855</v>
       </c>
     </row>
@@ -7305,7 +7327,7 @@
         <v>0.92970009003912002</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92708374830704821</v>
       </c>
     </row>
@@ -7347,7 +7369,7 @@
         <v>0.96962515675939398</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96824779141453576</v>
       </c>
     </row>
@@ -7389,7 +7411,7 @@
         <v>0.96886378455204103</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96644385810639588</v>
       </c>
     </row>
@@ -7431,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7473,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7515,7 +7537,7 @@
         <v>0.94277726906673998</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93349144707518672</v>
       </c>
     </row>
@@ -7557,7 +7579,7 @@
         <v>0.93614609453634001</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93482592331664771</v>
       </c>
     </row>
@@ -7599,7 +7621,7 @@
         <v>0.96584538056563796</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96813704111755816</v>
       </c>
     </row>
@@ -7641,7 +7663,7 @@
         <v>0.97148342006145305</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96962885794243836</v>
       </c>
     </row>
@@ -7683,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7725,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="M146" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7767,7 +7789,7 @@
         <v>0.942784614723161</v>
       </c>
       <c r="M147" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93405366189612393</v>
       </c>
     </row>
@@ -7809,7 +7831,7 @@
         <v>0.93251531942259702</v>
       </c>
       <c r="M148" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93437015383472721</v>
       </c>
     </row>
@@ -7851,7 +7873,7 @@
         <v>0.96958420360858499</v>
       </c>
       <c r="M149" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96822755482038914</v>
       </c>
     </row>
@@ -7893,7 +7915,7 @@
         <v>0.96740122944823004</v>
       </c>
       <c r="M150" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96727362896514979</v>
       </c>
     </row>
@@ -7903,6 +7925,4614 @@
     <mergeCell ref="H52:L52"/>
     <mergeCell ref="H102:L102"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3632752-1AB7-439F-A760-07D9D9948D7A}">
+  <dimension ref="A1:E270"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1">
+        <v>0.92122079161640202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>0.91903928886200603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0.92122079161640202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>0.91903928886200603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>0.95384983310945803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>0.95302161384778294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>0.95316878803216698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>0.95318211587865997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0.95428385892284495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>0.95384983310945803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>0.95302161384778294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0.95316878803216698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>0.95318211587865997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0.95428385892284495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>0.84225306357045304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0.84247660164653604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>0.84281051683240604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>0.84357323353841696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0.84789169108362505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>0.84152820201456102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0.84198850427256799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0.84267305611203902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>0.84345126028625805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>0.84778496330891295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>0.92070681837594603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>0.91903053959093195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>0.92070681837594603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>0.91903053959093195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41">
+        <v>0.95773256061301104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>0.95744176806417503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>0.95888821317314699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0.95792524529784195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>0.95896350115096896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>0.95773256061301104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>0.95744176806417503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>0.95901556618209505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>0.95792524529784195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>0.95896350115096896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0.84116236857894799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52">
+        <v>0.84217722705681097</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>0.84177296248806499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>0.84200112194769805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>0.84776944949627098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>0.84116236857894799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>0.84205522124779497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>0.84226056181313702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>0.84200112194769805</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>0.84828945137672795</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61">
+        <v>1.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>0.92122079161640202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>1.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>0.91903053959093195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63">
+        <v>1.5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64">
+        <v>1.5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65">
+        <v>1.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>1.5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>0.92122079161640202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>1.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>0.91903053959093195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>1.5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>0.91884826207466797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69">
+        <v>1.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>0.91911605533156404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70">
+        <v>1.5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70">
+        <v>0.92325921757290796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71">
+        <v>1.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>0.95952412803657094</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72">
+        <v>1.5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>0.95990417618834001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73">
+        <v>1.5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>0.96106208593801301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>1.5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74">
+        <v>0.95988445688342605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75">
+        <v>1.5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>0.96038600847456901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76">
+        <v>1.5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76">
+        <v>0.95952412803657094</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77">
+        <v>1.5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>0.96003643258446303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78">
+        <v>1.5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>0.96106208593801301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79">
+        <v>1.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <v>0.95988445688342605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80">
+        <v>1.5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>0.96051787816063905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81">
+        <v>1.5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81">
+        <v>0.84126777177958101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82">
+        <v>1.5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82">
+        <v>0.84181123271854497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83">
+        <v>1.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>0.84226056181313702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>1.5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>0.842154253329226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>1.5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85">
+        <v>0.84813619686749697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86">
+        <v>1.5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86">
+        <v>0.84137316143289198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87">
+        <v>1.5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>0.84181123271854497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88">
+        <v>1.5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <v>0.84212302628040203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89">
+        <v>1.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <v>0.842154253329226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90">
+        <v>1.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>0.84720260893417698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <v>0.88591902559279101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94">
+        <v>0.5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94">
+        <v>0.88605308217167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95">
+        <v>0.5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95">
+        <v>0.88622033939937295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96">
+        <v>0.5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
+        <v>0.5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97">
+        <v>0.88591902559279101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98">
+        <v>0.5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99">
+        <v>0.88605308217167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <v>0.88622033939937295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>0.88527665946195899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <v>0.88717067687650197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103">
+        <v>0.88537879360877902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104">
+        <v>0.886563988259641</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105">
+        <v>0.88626443932728105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106">
+        <v>0.88527665946195899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>0.88717067687650197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>0.88537879360877902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <v>0.886563988259641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <v>0.88626443932728105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111">
+        <v>0.83341914376397097</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112">
+        <v>0.81953877465948399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113">
+        <v>0.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113">
+        <v>0.83322958813154802</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114">
+        <v>0.82015466698639095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115">
+        <v>0.835934866727573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116">
+        <v>0.83341914376397097</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>0.819659593148654</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118">
+        <v>0.83336747841180803</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119">
+        <v>0.81999804522029995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120">
+        <v>0.5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120">
+        <v>0.83581322153714199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122">
+        <v>0.88566667366712204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" t="s">
+        <v>48</v>
+      </c>
+      <c r="E124">
+        <v>0.88605308217167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125">
+        <v>0.88650368167066496</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127">
+        <v>0.88566667366712204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129">
+        <v>0.88605308217167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130">
+        <v>0.88650368167066496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131">
+        <v>0.88540339434266502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>0.886840647143737</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>0.88574131605437301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>0.88727602807344097</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135">
+        <v>0.88608780511243002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>51</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136">
+        <v>0.88540339434266502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137">
+        <v>0.88696744817994899</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138">
+        <v>0.88574131605437301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139">
+        <v>0.88741836403970498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140">
+        <v>0.88594446963545603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141">
+        <v>0.81924014362328401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142">
+        <v>0.81899855477382699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>51</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143">
+        <v>0.83303587447201399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144">
+        <v>0.819411968004782</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>50</v>
+      </c>
+      <c r="D145" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145">
+        <v>0.83576235645880403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146">
+        <v>0.81936094830028205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>0.81899855477382699</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148">
+        <v>0.83276021295458802</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149">
+        <v>0.81953275427803296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>50</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150">
+        <v>0.836022637985811</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151">
+        <v>1.5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" t="s">
+        <v>48</v>
+      </c>
+      <c r="E151">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152">
+        <v>1.5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152">
+        <v>0.88566667366712204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153">
+        <v>1.5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" t="s">
+        <v>48</v>
+      </c>
+      <c r="E153">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154">
+        <v>1.5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154">
+        <v>0.88631962466951397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155">
+        <v>1.5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155">
+        <v>0.88637765627986298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156">
+        <v>1.5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156">
+        <v>0.88394659202039905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157">
+        <v>1.5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157">
+        <v>0.88566667366712204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158">
+        <v>1.5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158">
+        <v>0.88423576533362602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159">
+        <v>1.5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159">
+        <v>0.88631962466951397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160">
+        <v>1.5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160">
+        <v>0.88637765627986298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161">
+        <v>1.5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>48</v>
+      </c>
+      <c r="E161">
+        <v>0.88514993961156097</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162">
+        <v>1.5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" t="s">
+        <v>48</v>
+      </c>
+      <c r="E162">
+        <v>0.88777868659014103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163">
+        <v>1.5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163">
+        <v>0.88585134668940901</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>51</v>
+      </c>
+      <c r="B164">
+        <v>1.5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164">
+        <v>0.88738641128914897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>51</v>
+      </c>
+      <c r="B165">
+        <v>1.5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" t="s">
+        <v>48</v>
+      </c>
+      <c r="E165">
+        <v>0.88594446963545603</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>51</v>
+      </c>
+      <c r="B166">
+        <v>1.5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166">
+        <v>0.88514993961156097</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>51</v>
+      </c>
+      <c r="B167">
+        <v>1.5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167">
+        <v>0.88777868659014103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>51</v>
+      </c>
+      <c r="B168">
+        <v>1.5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168">
+        <v>0.88585134668940901</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169">
+        <v>1.5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169">
+        <v>0.88738641128914897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>51</v>
+      </c>
+      <c r="B170">
+        <v>1.5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170">
+        <v>0.88594446963545603</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>51</v>
+      </c>
+      <c r="B171">
+        <v>1.5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>50</v>
+      </c>
+      <c r="D171" t="s">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>0.81932280073905495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172">
+        <v>1.5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>50</v>
+      </c>
+      <c r="D172" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172">
+        <v>0.81875699317786499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>51</v>
+      </c>
+      <c r="B173">
+        <v>1.5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173">
+        <v>0.83289805317967602</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>51</v>
+      </c>
+      <c r="B174">
+        <v>1.5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>50</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174">
+        <v>0.81889303687835902</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175">
+        <v>1.5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175">
+        <v>0.83588400467561397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>51</v>
+      </c>
+      <c r="B176">
+        <v>1.5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>50</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176">
+        <v>0.81932280073905495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177">
+        <v>1.5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177">
+        <v>0.81889680270774001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178">
+        <v>1.5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178">
+        <v>0.83250092646304497</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179">
+        <v>1.5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179">
+        <v>0.81903173513653305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180">
+        <v>1.5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180">
+        <v>0.83588400467561397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182">
+        <v>0.5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>47</v>
+      </c>
+      <c r="D182" t="s">
+        <v>48</v>
+      </c>
+      <c r="E182">
+        <v>0.957893085050737</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183">
+        <v>0.5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>47</v>
+      </c>
+      <c r="D183" t="s">
+        <v>48</v>
+      </c>
+      <c r="E183">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184">
+        <v>0.5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184">
+        <v>0.95680664782118097</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>47</v>
+      </c>
+      <c r="D185" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>47</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>47</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187">
+        <v>0.957893085050737</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188">
+        <v>0.5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189">
+        <v>0.95680664782118097</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>49</v>
+      </c>
+      <c r="D191" t="s">
+        <v>48</v>
+      </c>
+      <c r="E191">
+        <v>0.98409959285182802</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>49</v>
+      </c>
+      <c r="D192" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192">
+        <v>0.98266137214935001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193">
+        <v>0.5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>49</v>
+      </c>
+      <c r="D193" t="s">
+        <v>48</v>
+      </c>
+      <c r="E193">
+        <v>0.98328175056789702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194">
+        <v>0.5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D194" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194">
+        <v>0.98235459161745697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195">
+        <v>0.98243372051636202</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196">
+        <v>0.5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196">
+        <v>0.98409959285182802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>49</v>
+      </c>
+      <c r="D197" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197">
+        <v>0.98266137214935001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198">
+        <v>0.5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198">
+        <v>0.98328175056789702</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199">
+        <v>0.98235459161745697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200">
+        <v>0.5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200">
+        <v>0.98243372051636202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201">
+        <v>0.91505087436362997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202">
+        <v>0.5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>50</v>
+      </c>
+      <c r="D202" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202">
+        <v>0.92633562515915402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>52</v>
+      </c>
+      <c r="B203">
+        <v>0.5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>50</v>
+      </c>
+      <c r="D203" t="s">
+        <v>48</v>
+      </c>
+      <c r="E203">
+        <v>0.92647421031867305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204">
+        <v>0.5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>50</v>
+      </c>
+      <c r="D204" t="s">
+        <v>48</v>
+      </c>
+      <c r="E204">
+        <v>0.91211404520275097</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205">
+        <v>0.5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>50</v>
+      </c>
+      <c r="D205" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205">
+        <v>0.92904015300375198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206">
+        <v>0.5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>50</v>
+      </c>
+      <c r="D206" t="s">
+        <v>31</v>
+      </c>
+      <c r="E206">
+        <v>0.92740934390639396</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207">
+        <v>0.5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207">
+        <v>0.92608269179459701</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>50</v>
+      </c>
+      <c r="D208" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208">
+        <v>0.92671186371973702</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209">
+        <v>0.5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>50</v>
+      </c>
+      <c r="D209" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209">
+        <v>0.91238243690371201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210">
+        <v>0.5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>50</v>
+      </c>
+      <c r="D210" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210">
+        <v>0.92890625000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D211" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212">
+        <v>0.95750311792268505</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>47</v>
+      </c>
+      <c r="D214" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214">
+        <v>0.95681109517761398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>47</v>
+      </c>
+      <c r="D215" t="s">
+        <v>48</v>
+      </c>
+      <c r="E215">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>47</v>
+      </c>
+      <c r="D216" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217">
+        <v>0.95750311792268505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>47</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219">
+        <v>0.95681109517761398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>47</v>
+      </c>
+      <c r="D220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>52</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" t="s">
+        <v>48</v>
+      </c>
+      <c r="E221">
+        <v>0.98658223439960402</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>52</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" t="s">
+        <v>48</v>
+      </c>
+      <c r="E222">
+        <v>0.98605529586711704</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>52</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223">
+        <v>0.98535390071230999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>49</v>
+      </c>
+      <c r="D224" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224">
+        <v>0.98559608626198902</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>49</v>
+      </c>
+      <c r="D225" t="s">
+        <v>48</v>
+      </c>
+      <c r="E225">
+        <v>0.98516854774582696</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>52</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226">
+        <v>0.98658223439960402</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>52</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" t="s">
+        <v>31</v>
+      </c>
+      <c r="E227">
+        <v>0.98605529586711704</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" t="s">
+        <v>31</v>
+      </c>
+      <c r="E228">
+        <v>0.985484221737844</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>52</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" t="s">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>0.98559608626198902</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>52</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230">
+        <v>0.98516854774582696</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>52</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>50</v>
+      </c>
+      <c r="D231" t="s">
+        <v>48</v>
+      </c>
+      <c r="E231">
+        <v>0.91517670924427696</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>52</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>50</v>
+      </c>
+      <c r="D232" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232">
+        <v>0.92583763273854003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>50</v>
+      </c>
+      <c r="D233" t="s">
+        <v>48</v>
+      </c>
+      <c r="E233">
+        <v>0.92594821183006804</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>52</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>50</v>
+      </c>
+      <c r="D234" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234">
+        <v>0.91186322171499401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>50</v>
+      </c>
+      <c r="D235" t="s">
+        <v>48</v>
+      </c>
+      <c r="E235">
+        <v>0.91394572504152205</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>52</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>50</v>
+      </c>
+      <c r="D236" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236">
+        <v>0.91477237186143401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>52</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>50</v>
+      </c>
+      <c r="D237" t="s">
+        <v>31</v>
+      </c>
+      <c r="E237">
+        <v>0.92583763273854003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>52</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>50</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238">
+        <v>0.91389148251893304</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>50</v>
+      </c>
+      <c r="D239" t="s">
+        <v>31</v>
+      </c>
+      <c r="E239">
+        <v>0.91186322171499401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D240" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240">
+        <v>0.92829614745188005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>52</v>
+      </c>
+      <c r="B241">
+        <v>1.5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>47</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242">
+        <v>1.5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>47</v>
+      </c>
+      <c r="D242" t="s">
+        <v>48</v>
+      </c>
+      <c r="E242">
+        <v>0.95763155141751199</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243">
+        <v>1.5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>47</v>
+      </c>
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+      <c r="E243">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244">
+        <v>1.5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>47</v>
+      </c>
+      <c r="D244" t="s">
+        <v>48</v>
+      </c>
+      <c r="E244">
+        <v>0.956815536001144</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245">
+        <v>1.5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>47</v>
+      </c>
+      <c r="D245" t="s">
+        <v>48</v>
+      </c>
+      <c r="E245">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>52</v>
+      </c>
+      <c r="B246">
+        <v>1.5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>47</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246">
+        <v>0.95924083175092101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>52</v>
+      </c>
+      <c r="B247">
+        <v>1.5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>47</v>
+      </c>
+      <c r="D247" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247">
+        <v>0.95763155141751199</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>52</v>
+      </c>
+      <c r="B248">
+        <v>1.5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>47</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248">
+        <v>0.95892612883768502</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249">
+        <v>1.5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>47</v>
+      </c>
+      <c r="D249" t="s">
+        <v>31</v>
+      </c>
+      <c r="E249">
+        <v>0.956815536001144</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250">
+        <v>1.5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>47</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250">
+        <v>0.95927602961650704</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>52</v>
+      </c>
+      <c r="B251">
+        <v>1.5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>49</v>
+      </c>
+      <c r="D251" t="s">
+        <v>48</v>
+      </c>
+      <c r="E251">
+        <v>0.98775015742350802</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>52</v>
+      </c>
+      <c r="B252">
+        <v>1.5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>49</v>
+      </c>
+      <c r="D252" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252">
+        <v>0.98709924904435398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B253">
+        <v>1.5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>49</v>
+      </c>
+      <c r="D253" t="s">
+        <v>48</v>
+      </c>
+      <c r="E253">
+        <v>0.98690923868976399</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>52</v>
+      </c>
+      <c r="B254">
+        <v>1.5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>49</v>
+      </c>
+      <c r="D254" t="s">
+        <v>48</v>
+      </c>
+      <c r="E254">
+        <v>0.98728239843064802</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>52</v>
+      </c>
+      <c r="B255">
+        <v>1.5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>49</v>
+      </c>
+      <c r="D255" t="s">
+        <v>48</v>
+      </c>
+      <c r="E255">
+        <v>0.98620650527236797</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>52</v>
+      </c>
+      <c r="B256">
+        <v>1.5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>49</v>
+      </c>
+      <c r="D256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256">
+        <v>0.98775015742350802</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257">
+        <v>1.5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>49</v>
+      </c>
+      <c r="D257" t="s">
+        <v>31</v>
+      </c>
+      <c r="E257">
+        <v>0.98709924904435398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>52</v>
+      </c>
+      <c r="B258">
+        <v>1.5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>49</v>
+      </c>
+      <c r="D258" t="s">
+        <v>31</v>
+      </c>
+      <c r="E258">
+        <v>0.98690923868976399</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>52</v>
+      </c>
+      <c r="B259">
+        <v>1.5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>49</v>
+      </c>
+      <c r="D259" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259">
+        <v>0.98728239843064802</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>52</v>
+      </c>
+      <c r="B260">
+        <v>1.5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>49</v>
+      </c>
+      <c r="D260" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260">
+        <v>0.98620650527236797</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>52</v>
+      </c>
+      <c r="B261">
+        <v>1.5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>50</v>
+      </c>
+      <c r="D261" t="s">
+        <v>48</v>
+      </c>
+      <c r="E261">
+        <v>0.91477237186143401</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>52</v>
+      </c>
+      <c r="B262">
+        <v>1.5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>50</v>
+      </c>
+      <c r="D262" t="s">
+        <v>48</v>
+      </c>
+      <c r="E262">
+        <v>0.92572685555977796</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>52</v>
+      </c>
+      <c r="B263">
+        <v>1.5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>50</v>
+      </c>
+      <c r="D263" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263">
+        <v>0.92555547579356501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264">
+        <v>1.5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>50</v>
+      </c>
+      <c r="D264" t="s">
+        <v>48</v>
+      </c>
+      <c r="E264">
+        <v>0.92469496266428097</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>52</v>
+      </c>
+      <c r="B265">
+        <v>1.5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>50</v>
+      </c>
+      <c r="D265" t="s">
+        <v>48</v>
+      </c>
+      <c r="E265">
+        <v>0.92764173549215101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>52</v>
+      </c>
+      <c r="B266">
+        <v>1.5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>50</v>
+      </c>
+      <c r="D266" t="s">
+        <v>31</v>
+      </c>
+      <c r="E266">
+        <v>0.91477237186143401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>52</v>
+      </c>
+      <c r="B267">
+        <v>1.5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>50</v>
+      </c>
+      <c r="D267" t="s">
+        <v>31</v>
+      </c>
+      <c r="E267">
+        <v>0.92572685555977796</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>52</v>
+      </c>
+      <c r="B268">
+        <v>1.5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>50</v>
+      </c>
+      <c r="D268" t="s">
+        <v>31</v>
+      </c>
+      <c r="E268">
+        <v>0.92568883603963004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>52</v>
+      </c>
+      <c r="B269">
+        <v>1.5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>50</v>
+      </c>
+      <c r="D269" t="s">
+        <v>31</v>
+      </c>
+      <c r="E269">
+        <v>0.92497715080481802</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>52</v>
+      </c>
+      <c r="B270">
+        <v>1.5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>50</v>
+      </c>
+      <c r="D270" t="s">
+        <v>31</v>
+      </c>
+      <c r="E270">
+        <v>0.913820015054159</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
